--- a/mappingCorps/ig/StructureDefinition-fr-lm-codes-a-barres.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-codes-a-barres.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:59:20+00:00</t>
+    <t>2026-01-22T09:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-codes-a-barres.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-codes-a-barres.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T09:24:45+00:00</t>
+    <t>2026-01-22T13:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-codes-a-barres.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-codes-a-barres.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:29:51+00:00</t>
+    <t>2026-01-26T10:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-codes-a-barres.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-codes-a-barres.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T10:27:23+00:00</t>
+    <t>2026-02-03T11:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-codes-a-barres.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-codes-a-barres.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-03T11:02:09+00:00</t>
+    <t>2026-02-04T10:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
